--- a/命令デコード解析.xlsx
+++ b/命令デコード解析.xlsx
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="31" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="8">
         <v>0</v>
@@ -1439,8 +1439,8 @@
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18">
-        <v>6</v>
+      <c r="A32" s="1">
+        <v>5</v>
       </c>
       <c r="B32" s="19">
         <v>0</v>
@@ -1468,8 +1468,8 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18">
-        <v>7</v>
+      <c r="A33" s="1">
+        <v>6</v>
       </c>
       <c r="B33" s="19">
         <v>0</v>
@@ -1497,8 +1497,8 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18">
-        <v>7</v>
+      <c r="A34" s="1">
+        <v>6</v>
       </c>
       <c r="B34" s="19">
         <v>0</v>
@@ -1526,8 +1526,8 @@
       <c r="K34" s="21"/>
     </row>
     <row r="35" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="18">
-        <v>7</v>
+      <c r="A35" s="1">
+        <v>6</v>
       </c>
       <c r="B35" s="19">
         <v>0</v>
@@ -1555,8 +1555,8 @@
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18">
-        <v>7</v>
+      <c r="A36" s="1">
+        <v>6</v>
       </c>
       <c r="B36" s="19">
         <v>0</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="37" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B37" s="14">
         <v>0</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="38" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B38" s="14">
         <v>1</v>

--- a/命令デコード解析.xlsx
+++ b/命令デコード解析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
   <si>
     <t>FORMAT_1</t>
     <phoneticPr fontId="1"/>
@@ -112,6 +112,10 @@
     <rPh sb="13" eb="14">
       <t>ケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FORMAT12(CMOV)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -567,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1490,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
